--- a/Input/NetMigration_Berger_Full_sexandage.xlsx
+++ b/Input/NetMigration_Berger_Full_sexandage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\OneDrive - Chicago Metropolitan Agency for Planning\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\OneDrive - Chicago Metropolitan Agency for Planning\Documents\GitHub\DemographicForecasting\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12708" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="35">
   <si>
     <t>Period</t>
   </si>
@@ -479,19 +479,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="G573" sqref="G573"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="H567" sqref="H567"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -531,7 +531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -551,7 +551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -571,7 +571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -591,7 +591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -611,7 +611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -631,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -671,7 +671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -691,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -751,7 +751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -771,7 +771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -811,7 +811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -831,7 +831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -851,7 +851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -911,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -931,7 +931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -951,7 +951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -971,7 +971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -991,7 +991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -3407,8 +3407,11 @@
       <c r="E146">
         <v>1706.6939444144082</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -3424,8 +3427,11 @@
       <c r="E147">
         <v>2049.4404939412234</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -3441,8 +3447,11 @@
       <c r="E148">
         <v>1357.6354514276754</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -3458,8 +3467,11 @@
       <c r="E149">
         <v>2368.7895047300408</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3475,8 +3487,11 @@
       <c r="E150">
         <v>-868.11700861093777</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3492,8 +3507,11 @@
       <c r="E151">
         <v>-646.60515772873987</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -3509,8 +3527,11 @@
       <c r="E152">
         <v>2971.1177154899924</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -3526,8 +3547,11 @@
       <c r="E153">
         <v>1650.2336558958341</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -3543,8 +3567,11 @@
       <c r="E154">
         <v>655.88999353646068</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3560,8 +3587,11 @@
       <c r="E155">
         <v>1544.6755776241625</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -3577,8 +3607,11 @@
       <c r="E156">
         <v>6.4645651702885516</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -3594,8 +3627,11 @@
       <c r="E157">
         <v>133.63283013640466</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3611,8 +3647,11 @@
       <c r="E158">
         <v>143.71686698419762</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3628,8 +3667,11 @@
       <c r="E159">
         <v>236.62658110277152</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -3645,8 +3687,11 @@
       <c r="E160">
         <v>-267.39328999397003</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3707,11 @@
       <c r="E161">
         <v>151.06723166773645</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3679,8 +3727,11 @@
       <c r="E162">
         <v>224.53858306497023</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F162" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3696,8 +3747,11 @@
       <c r="E163">
         <v>196.13223558578147</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3713,8 +3767,11 @@
       <c r="E164">
         <v>1654.2346068355764</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -3730,8 +3787,11 @@
       <c r="E165">
         <v>1569.3394672353243</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -3747,8 +3807,11 @@
       <c r="E166">
         <v>1605.9174647409382</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -3764,8 +3827,11 @@
       <c r="E167">
         <v>1919.0601458566925</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3781,8 +3847,11 @@
       <c r="E168">
         <v>-1216.796304830259</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -3798,8 +3867,11 @@
       <c r="E169">
         <v>-1516.9914552293376</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -3815,8 +3887,11 @@
       <c r="E170">
         <v>2277.1634578089652</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -3832,8 +3907,11 @@
       <c r="E171">
         <v>1595.2631465937993</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -3849,8 +3927,11 @@
       <c r="E172">
         <v>832.33955208127736</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -3866,8 +3947,11 @@
       <c r="E173">
         <v>519.42727195809493</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -3883,8 +3967,11 @@
       <c r="E174">
         <v>486.19590857748335</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3900,8 +3987,11 @@
       <c r="E175">
         <v>212.02082575620443</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -3917,8 +4007,11 @@
       <c r="E176">
         <v>113.73408169479626</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -3934,8 +4027,11 @@
       <c r="E177">
         <v>331.58343805690856</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -3951,8 +4047,11 @@
       <c r="E178">
         <v>20.693421815471083</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -3968,8 +4067,11 @@
       <c r="E179">
         <v>-46.708388302684398</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -3985,8 +4087,11 @@
       <c r="E180">
         <v>109.52199385972017</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -4002,8 +4107,11 @@
       <c r="E181">
         <v>318.72038559876455</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>29</v>
       </c>
@@ -4019,8 +4127,11 @@
       <c r="E182">
         <v>449.16240668144019</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -4036,8 +4147,11 @@
       <c r="E183">
         <v>1275.7458542818458</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>29</v>
       </c>
@@ -4053,8 +4167,11 @@
       <c r="E184">
         <v>2151.3277962661123</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -4070,8 +4187,11 @@
       <c r="E185">
         <v>1588.9880034662638</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>29</v>
       </c>
@@ -4087,8 +4207,11 @@
       <c r="E186">
         <v>-507.49385151959359</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>29</v>
       </c>
@@ -4104,8 +4227,11 @@
       <c r="E187">
         <v>-339.0696575476104</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>29</v>
       </c>
@@ -4121,8 +4247,11 @@
       <c r="E188">
         <v>1245.6743993030941</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>29</v>
       </c>
@@ -4138,8 +4267,11 @@
       <c r="E189">
         <v>1081.5200084414355</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -4155,8 +4287,11 @@
       <c r="E190">
         <v>466.11510010801794</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -4172,8 +4307,11 @@
       <c r="E191">
         <v>550.33504993865063</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>29</v>
       </c>
@@ -4189,8 +4327,11 @@
       <c r="E192">
         <v>-622.82700461415516</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>29</v>
       </c>
@@ -4206,8 +4347,11 @@
       <c r="E193">
         <v>-77.011000949292793</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -4223,8 +4367,11 @@
       <c r="E194">
         <v>-132.49973804669389</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>29</v>
       </c>
@@ -4240,8 +4387,11 @@
       <c r="E195">
         <v>-364.78181433513964</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>29</v>
       </c>
@@ -4257,8 +4407,11 @@
       <c r="E196">
         <v>107.66224283884731</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -4274,8 +4427,11 @@
       <c r="E197">
         <v>152.87110521336763</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>29</v>
       </c>
@@ -4291,8 +4447,11 @@
       <c r="E198">
         <v>64.616285630097082</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>29</v>
       </c>
@@ -4308,8 +4467,11 @@
       <c r="E199">
         <v>49.535243861437721</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>29</v>
       </c>
@@ -4325,8 +4487,11 @@
       <c r="E200">
         <v>475.95977261060398</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>29</v>
       </c>
@@ -4342,8 +4507,11 @@
       <c r="E201">
         <v>1333.5286579623134</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>29</v>
       </c>
@@ -4359,8 +4527,11 @@
       <c r="E202">
         <v>2193.4830901034111</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4376,8 +4547,11 @@
       <c r="E203">
         <v>1315.4914834524752</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>29</v>
       </c>
@@ -4393,8 +4567,11 @@
       <c r="E204">
         <v>-387.89252939756989</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>29</v>
       </c>
@@ -4410,8 +4587,11 @@
       <c r="E205">
         <v>-869.56108170186053</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>29</v>
       </c>
@@ -4427,8 +4607,11 @@
       <c r="E206">
         <v>1197.8442067355572</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>29</v>
       </c>
@@ -4444,8 +4627,11 @@
       <c r="E207">
         <v>1033.4490701153118</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>29</v>
       </c>
@@ -4461,8 +4647,11 @@
       <c r="E208">
         <v>-173.66988657460752</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>29</v>
       </c>
@@ -4478,8 +4667,11 @@
       <c r="E209">
         <v>-196.80622511106048</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -4495,8 +4687,11 @@
       <c r="E210">
         <v>-42.043915062833548</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -4512,8 +4707,11 @@
       <c r="E211">
         <v>-213.38231363962404</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>29</v>
       </c>
@@ -4529,8 +4727,11 @@
       <c r="E212">
         <v>-184.08910324687349</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>29</v>
       </c>
@@ -4546,8 +4747,11 @@
       <c r="E213">
         <v>-33.515022187408249</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -4563,8 +4767,11 @@
       <c r="E214">
         <v>103.07897850677364</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -4580,8 +4787,11 @@
       <c r="E215">
         <v>107.66462959729506</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>29</v>
       </c>
@@ -4597,8 +4807,11 @@
       <c r="E216">
         <v>19.056203390642622</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -4614,8 +4827,11 @@
       <c r="E217">
         <v>-152.28313248922132</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -4631,8 +4847,11 @@
       <c r="E218">
         <v>605.78146734774782</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>30</v>
       </c>
@@ -4648,8 +4867,11 @@
       <c r="E219">
         <v>1706.2126494137847</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -4665,8 +4887,11 @@
       <c r="E220">
         <v>1445.3722172653688</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -4682,8 +4907,11 @@
       <c r="E221">
         <v>1807.3732932482599</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>30</v>
       </c>
@@ -4699,8 +4927,11 @@
       <c r="E222">
         <v>797.01149740589244</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>30</v>
       </c>
@@ -4716,8 +4947,11 @@
       <c r="E223">
         <v>-2152.9853650522782</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>30</v>
       </c>
@@ -4733,8 +4967,11 @@
       <c r="E224">
         <v>991.94173411724842</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>30</v>
       </c>
@@ -4750,8 +4987,11 @@
       <c r="E225">
         <v>1372.3499753274264</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="E226">
         <v>939.11909885729256</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -4784,8 +5027,11 @@
       <c r="E227">
         <v>512.20624823666367</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -4801,8 +5047,11 @@
       <c r="E228">
         <v>534.78508215079273</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -4818,8 +5067,11 @@
       <c r="E229">
         <v>349.94485181933487</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -4835,8 +5087,11 @@
       <c r="E230">
         <v>390.27289722193018</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -4852,8 +5107,11 @@
       <c r="E231">
         <v>371.75886923119651</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -4869,8 +5127,11 @@
       <c r="E232">
         <v>307.07483858640626</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -4886,8 +5147,11 @@
       <c r="E233">
         <v>19.582565051734491</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>30</v>
       </c>
@@ -4903,8 +5167,11 @@
       <c r="E234">
         <v>96.431238890261739</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F234" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -4920,8 +5187,11 @@
       <c r="E235">
         <v>-13.193920270790841</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F235" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -4937,8 +5207,11 @@
       <c r="E236">
         <v>454.99267780260561</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -4954,8 +5227,11 @@
       <c r="E237">
         <v>1789.1721816646095</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -4971,8 +5247,11 @@
       <c r="E238">
         <v>1536.4843625810172</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -4988,8 +5267,11 @@
       <c r="E239">
         <v>1685.3074074380202</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -5005,8 +5287,11 @@
       <c r="E240">
         <v>986.20111979329158</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -5022,8 +5307,11 @@
       <c r="E241">
         <v>-2453.837653698869</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -5039,8 +5327,11 @@
       <c r="E242">
         <v>1362.4696956560001</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>30</v>
       </c>
@@ -5056,8 +5347,11 @@
       <c r="E243">
         <v>1407.902510033553</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>30</v>
       </c>
@@ -5073,8 +5367,11 @@
       <c r="E244">
         <v>494.94317789529669</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>30</v>
       </c>
@@ -5090,8 +5387,11 @@
       <c r="E245">
         <v>599.34282292857824</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -5107,8 +5407,11 @@
       <c r="E246">
         <v>570.90193402879595</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -5124,8 +5427,11 @@
       <c r="E247">
         <v>541.44671048665259</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -5141,8 +5447,11 @@
       <c r="E248">
         <v>383.6808102174582</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>30</v>
       </c>
@@ -5158,8 +5467,11 @@
       <c r="E249">
         <v>538.34504327666582</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5175,8 +5487,11 @@
       <c r="E250">
         <v>126.8111914376077</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>30</v>
       </c>
@@ -5192,8 +5507,11 @@
       <c r="E251">
         <v>140.32742672156928</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -5209,8 +5527,11 @@
       <c r="E252">
         <v>127.66227815540697</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>30</v>
       </c>
@@ -5226,8 +5547,11 @@
       <c r="E253">
         <v>-145.64679545542458</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>31</v>
       </c>
@@ -5243,8 +5567,11 @@
       <c r="E254">
         <v>716.54362677748941</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>31</v>
       </c>
@@ -5260,8 +5587,11 @@
       <c r="E255">
         <v>1938.9439039812642</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>31</v>
       </c>
@@ -5277,8 +5607,11 @@
       <c r="E256">
         <v>1776.7652057268642</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>31</v>
       </c>
@@ -5294,8 +5627,11 @@
       <c r="E257">
         <v>1693.6232778728772</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>31</v>
       </c>
@@ -5311,8 +5647,11 @@
       <c r="E258">
         <v>-1199.7757936049493</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>31</v>
       </c>
@@ -5328,8 +5667,11 @@
       <c r="E259">
         <v>-3375.2112937560414</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>31</v>
       </c>
@@ -5345,8 +5687,11 @@
       <c r="E260">
         <v>1456.0851167918881</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>31</v>
       </c>
@@ -5362,8 +5707,11 @@
       <c r="E261">
         <v>1013.7287346114099</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>31</v>
       </c>
@@ -5379,8 +5727,11 @@
       <c r="E262">
         <v>908.30557659077385</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>31</v>
       </c>
@@ -5396,8 +5747,11 @@
       <c r="E263">
         <v>854.04775368856281</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -5413,8 +5767,11 @@
       <c r="E264">
         <v>731.96304433319892</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -5430,8 +5787,11 @@
       <c r="E265">
         <v>447.45826308563119</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>31</v>
       </c>
@@ -5447,8 +5807,11 @@
       <c r="E266">
         <v>443.10873493612235</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5464,8 +5827,11 @@
       <c r="E267">
         <v>272.67050132396434</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -5481,8 +5847,11 @@
       <c r="E268">
         <v>157.61557286464449</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -5498,8 +5867,11 @@
       <c r="E269">
         <v>221.37389856019399</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>31</v>
       </c>
@@ -5515,8 +5887,11 @@
       <c r="E270">
         <v>346.19595637819293</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F270" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>31</v>
       </c>
@@ -5532,8 +5907,11 @@
       <c r="E271">
         <v>210.72526195261707</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>31</v>
       </c>
@@ -5549,8 +5927,11 @@
       <c r="E272">
         <v>755.5094458966887</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>31</v>
       </c>
@@ -5566,8 +5947,11 @@
       <c r="E273">
         <v>2088.6232645218624</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>31</v>
       </c>
@@ -5583,8 +5967,11 @@
       <c r="E274">
         <v>1928.1604783724651</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>31</v>
       </c>
@@ -5600,8 +5987,11 @@
       <c r="E275">
         <v>1445.3611050004838</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>31</v>
       </c>
@@ -5617,8 +6007,11 @@
       <c r="E276">
         <v>-1044.3020971033293</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5634,8 +6027,11 @@
       <c r="E277">
         <v>-2945.5370827521474</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>31</v>
       </c>
@@ -5651,8 +6047,11 @@
       <c r="E278">
         <v>2081.8855595267087</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>31</v>
       </c>
@@ -5668,8 +6067,11 @@
       <c r="E279">
         <v>1082.6945623619831</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>31</v>
       </c>
@@ -5685,8 +6087,11 @@
       <c r="E280">
         <v>757.56977899470075</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>31</v>
       </c>
@@ -5702,8 +6107,11 @@
       <c r="E281">
         <v>753.52670531635158</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -5719,8 +6127,11 @@
       <c r="E282">
         <v>553.69880167391602</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>31</v>
       </c>
@@ -5736,8 +6147,11 @@
       <c r="E283">
         <v>520.49426359516292</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>31</v>
       </c>
@@ -5753,8 +6167,11 @@
       <c r="E284">
         <v>229.20115750617697</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>31</v>
       </c>
@@ -5770,8 +6187,11 @@
       <c r="E285">
         <v>327.68181262596772</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>31</v>
       </c>
@@ -5787,8 +6207,11 @@
       <c r="E286">
         <v>3.3770265887742426</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>31</v>
       </c>
@@ -5804,8 +6227,11 @@
       <c r="E287">
         <v>376.98495505995379</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>31</v>
       </c>
@@ -5821,8 +6247,11 @@
       <c r="E288">
         <v>156.40627139573917</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>31</v>
       </c>
@@ -5838,8 +6267,11 @@
       <c r="E289">
         <v>373.13667467803134</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -5855,8 +6287,11 @@
       <c r="E290">
         <v>-319.6273326950286</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -5872,8 +6307,11 @@
       <c r="E291">
         <v>1706.3713279451767</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -5889,8 +6327,11 @@
       <c r="E292">
         <v>553.29707489832435</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -5906,8 +6347,11 @@
       <c r="E293">
         <v>-1460.3434946155212</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -5923,8 +6367,11 @@
       <c r="E294">
         <v>-2987.3500697388845</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -5940,8 +6387,11 @@
       <c r="E295">
         <v>900.84965025832571</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -5957,8 +6407,11 @@
       <c r="E296">
         <v>1721.9030226633658</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -5974,8 +6427,11 @@
       <c r="E297">
         <v>694.57843863296148</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -5991,8 +6447,11 @@
       <c r="E298">
         <v>1062.8061393511234</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -6008,8 +6467,11 @@
       <c r="E299">
         <v>575.03435426604847</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -6025,8 +6487,11 @@
       <c r="E300">
         <v>451.14986338070594</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -6042,8 +6507,11 @@
       <c r="E301">
         <v>-120.88089535203289</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -6059,8 +6527,11 @@
       <c r="E302">
         <v>-512.00651538789498</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -6076,8 +6547,11 @@
       <c r="E303">
         <v>-63.548680956728276</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -6093,8 +6567,11 @@
       <c r="E304">
         <v>-473.49155463740135</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -6110,8 +6587,11 @@
       <c r="E305">
         <v>-371.79479341567003</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -6127,8 +6607,11 @@
       <c r="E306">
         <v>263.60767760528643</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F306" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -6144,8 +6627,11 @@
       <c r="E307">
         <v>82.486897410480196</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F307" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -6161,8 +6647,11 @@
       <c r="E308">
         <v>-621.18376924086624</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -6178,8 +6667,11 @@
       <c r="E309">
         <v>1518.8834105525166</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -6195,8 +6687,11 @@
       <c r="E310">
         <v>763.34450027936327</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -6212,8 +6707,11 @@
       <c r="E311">
         <v>-1739.5069423073364</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -6229,8 +6727,11 @@
       <c r="E312">
         <v>-2497.9077891093366</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -6246,8 +6747,11 @@
       <c r="E313">
         <v>1113.3616838428534</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -6263,8 +6767,11 @@
       <c r="E314">
         <v>775.62856986040424</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -6280,8 +6787,11 @@
       <c r="E315">
         <v>-100.05270045125872</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -6297,8 +6807,11 @@
       <c r="E316">
         <v>1556.3737763554527</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -6314,8 +6827,11 @@
       <c r="E317">
         <v>553.76376583750971</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -6331,8 +6847,11 @@
       <c r="E318">
         <v>-486.95757113116269</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -6348,8 +6867,11 @@
       <c r="E319">
         <v>-111.96150079039217</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -6365,8 +6887,11 @@
       <c r="E320">
         <v>297.5909620035909</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -6382,8 +6907,11 @@
       <c r="E321">
         <v>-921.18963061594695</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -6399,8 +6927,11 @@
       <c r="E322">
         <v>-591.73965348156526</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -6416,8 +6947,11 @@
       <c r="E323">
         <v>-124.94443969170788</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -6433,8 +6967,11 @@
       <c r="E324">
         <v>-64.797883743125567</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -6450,8 +6987,11 @@
       <c r="E325">
         <v>246.60732175404519</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -6467,8 +7007,11 @@
       <c r="E326">
         <v>256.47091711229223</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -6484,8 +7027,11 @@
       <c r="E327">
         <v>2000.2772883934376</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -6501,8 +7047,11 @@
       <c r="E328">
         <v>864.96319577562826</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>29</v>
       </c>
@@ -6518,8 +7067,11 @@
       <c r="E329">
         <v>383.41391485204076</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -6535,8 +7087,11 @@
       <c r="E330">
         <v>-3932.348111431922</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -6552,8 +7107,11 @@
       <c r="E331">
         <v>-820.50827740680688</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>29</v>
       </c>
@@ -6569,8 +7127,11 @@
       <c r="E332">
         <v>370.66578325657247</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>29</v>
       </c>
@@ -6586,8 +7147,11 @@
       <c r="E333">
         <v>312.89366585807511</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -6603,8 +7167,11 @@
       <c r="E334">
         <v>430.93808047847415</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>29</v>
       </c>
@@ -6620,8 +7187,11 @@
       <c r="E335">
         <v>144.10846831680828</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>29</v>
       </c>
@@ -6637,8 +7207,11 @@
       <c r="E336">
         <v>-620.78879396100092</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -6654,8 +7227,11 @@
       <c r="E337">
         <v>-893.85518051178224</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>29</v>
       </c>
@@ -6671,8 +7247,11 @@
       <c r="E338">
         <v>-947.3892571317956</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>29</v>
       </c>
@@ -6688,8 +7267,11 @@
       <c r="E339">
         <v>-757.95130648156191</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>29</v>
       </c>
@@ -6705,8 +7287,11 @@
       <c r="E340">
         <v>-63.014745756243428</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>29</v>
       </c>
@@ -6722,8 +7307,11 @@
       <c r="E341">
         <v>-35.141676531214216</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6739,8 +7327,11 @@
       <c r="E342">
         <v>238.37604416693284</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F342" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -6756,8 +7347,11 @@
       <c r="E343">
         <v>82.261467009130683</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F343" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>29</v>
       </c>
@@ -6773,8 +7367,11 @@
       <c r="E344">
         <v>-27.370069229738874</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>29</v>
       </c>
@@ -6790,8 +7387,11 @@
       <c r="E345">
         <v>1428.6416109812562</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -6807,8 +7407,11 @@
       <c r="E346">
         <v>990.53619036935925</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>29</v>
       </c>
@@ -6824,8 +7427,11 @@
       <c r="E347">
         <v>-351.28072433195121</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>29</v>
       </c>
@@ -6841,8 +7447,11 @@
       <c r="E348">
         <v>-2991.7334154750824</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>29</v>
       </c>
@@ -6858,8 +7467,11 @@
       <c r="E349">
         <v>-1071.40854643895</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>29</v>
       </c>
@@ -6875,8 +7487,11 @@
       <c r="E350">
         <v>-27.089900068473071</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>29</v>
       </c>
@@ -6892,8 +7507,11 @@
       <c r="E351">
         <v>258.98602475063672</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>29</v>
       </c>
@@ -6909,8 +7527,11 @@
       <c r="E352">
         <v>698.37736597279945</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>29</v>
       </c>
@@ -6926,8 +7547,11 @@
       <c r="E353">
         <v>-791.29076876266117</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>29</v>
       </c>
@@ -6943,8 +7567,11 @@
       <c r="E354">
         <v>-969.38622640600806</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>29</v>
       </c>
@@ -6960,8 +7587,11 @@
       <c r="E355">
         <v>-819.1910831632631</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>29</v>
       </c>
@@ -6977,8 +7607,11 @@
       <c r="E356">
         <v>-853.70910059470225</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>29</v>
       </c>
@@ -6994,8 +7627,11 @@
       <c r="E357">
         <v>-746.21927160095947</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>29</v>
       </c>
@@ -7011,8 +7647,11 @@
       <c r="E358">
         <v>148.7668564383639</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>29</v>
       </c>
@@ -7028,8 +7667,11 @@
       <c r="E359">
         <v>-132.90464542719019</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>29</v>
       </c>
@@ -7045,8 +7687,11 @@
       <c r="E360">
         <v>24.293135556925336</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>29</v>
       </c>
@@ -7062,8 +7707,11 @@
       <c r="E361">
         <v>31.861268584318168</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>30</v>
       </c>
@@ -7079,8 +7727,11 @@
       <c r="E362">
         <v>547.57436543393851</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>30</v>
       </c>
@@ -7096,8 +7747,11 @@
       <c r="E363">
         <v>916.1776865817701</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>30</v>
       </c>
@@ -7113,8 +7767,11 @@
       <c r="E364">
         <v>1003.9519697864343</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>30</v>
       </c>
@@ -7130,8 +7787,11 @@
       <c r="E365">
         <v>-383.24668151920923</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>30</v>
       </c>
@@ -7147,8 +7807,11 @@
       <c r="E366">
         <v>-3561.3573148659161</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>30</v>
       </c>
@@ -7164,8 +7827,11 @@
       <c r="E367">
         <v>224.34980157979589</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>30</v>
       </c>
@@ -7181,8 +7847,11 @@
       <c r="E368">
         <v>463.10038475458714</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>30</v>
       </c>
@@ -7198,8 +7867,11 @@
       <c r="E369">
         <v>720.04726876196582</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>30</v>
       </c>
@@ -7215,8 +7887,11 @@
       <c r="E370">
         <v>543.27383463385195</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>30</v>
       </c>
@@ -7232,8 +7907,11 @@
       <c r="E371">
         <v>136.17415486532627</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>30</v>
       </c>
@@ -7249,8 +7927,11 @@
       <c r="E372">
         <v>-27.674177203280124</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>30</v>
       </c>
@@ -7266,8 +7947,11 @@
       <c r="E373">
         <v>-117.35633957894606</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -7283,8 +7967,11 @@
       <c r="E374">
         <v>-627.83535172456322</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>30</v>
       </c>
@@ -7300,8 +7987,11 @@
       <c r="E375">
         <v>-338.18120093702782</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>30</v>
       </c>
@@ -7317,8 +8007,11 @@
       <c r="E376">
         <v>-124.53506093847682</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>30</v>
       </c>
@@ -7334,8 +8027,11 @@
       <c r="E377">
         <v>-57.592725027776396</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>30</v>
       </c>
@@ -7351,8 +8047,11 @@
       <c r="E378">
         <v>-138.35965326649784</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F378" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>30</v>
       </c>
@@ -7368,8 +8067,11 @@
       <c r="E379">
         <v>-276.27810786415284</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F379" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>30</v>
       </c>
@@ -7385,8 +8087,11 @@
       <c r="E380">
         <v>-32.464963439429994</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>30</v>
       </c>
@@ -7402,8 +8107,11 @@
       <c r="E381">
         <v>668.34613658080707</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>30</v>
       </c>
@@ -7419,8 +8127,11 @@
       <c r="E382">
         <v>508.96310578662815</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>30</v>
       </c>
@@ -7436,8 +8147,11 @@
       <c r="E383">
         <v>-683.57928243802598</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -7453,8 +8167,11 @@
       <c r="E384">
         <v>-3017.9007178146894</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>30</v>
       </c>
@@ -7470,8 +8187,11 @@
       <c r="E385">
         <v>265.86062137074259</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>30</v>
       </c>
@@ -7487,8 +8207,11 @@
       <c r="E386">
         <v>481.303433770423</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>30</v>
       </c>
@@ -7504,8 +8227,11 @@
       <c r="E387">
         <v>867.10720974197829</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>30</v>
       </c>
@@ -7521,8 +8247,11 @@
       <c r="E388">
         <v>257.48853317257453</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>30</v>
       </c>
@@ -7538,8 +8267,11 @@
       <c r="E389">
         <v>-43.174319522349833</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>30</v>
       </c>
@@ -7555,8 +8287,11 @@
       <c r="E390">
         <v>-80.273439812412107</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>30</v>
       </c>
@@ -7572,8 +8307,11 @@
       <c r="E391">
         <v>-85.405272869953478</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>30</v>
       </c>
@@ -7589,8 +8327,11 @@
       <c r="E392">
         <v>-298.05900920193017</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>30</v>
       </c>
@@ -7606,8 +8347,11 @@
       <c r="E393">
         <v>33.150887503885315</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>30</v>
       </c>
@@ -7623,8 +8367,11 @@
       <c r="E394">
         <v>-68.320124452047821</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>30</v>
       </c>
@@ -7640,8 +8387,11 @@
       <c r="E395">
         <v>27.349457903113944</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>30</v>
       </c>
@@ -7657,8 +8407,11 @@
       <c r="E396">
         <v>-156.07012229159227</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>30</v>
       </c>
@@ -7674,8 +8427,11 @@
       <c r="E397">
         <v>-516.73665829039055</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>31</v>
       </c>
@@ -7691,8 +8447,11 @@
       <c r="E398">
         <v>583.05617109201194</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>31</v>
       </c>
@@ -7708,8 +8467,11 @@
       <c r="E399">
         <v>1334.9670975136978</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>31</v>
       </c>
@@ -7725,8 +8487,11 @@
       <c r="E400">
         <v>1348.9116187737964</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>31</v>
       </c>
@@ -7742,8 +8507,11 @@
       <c r="E401">
         <v>-250.57275600722278</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>31</v>
       </c>
@@ -7759,8 +8527,11 @@
       <c r="E402">
         <v>-3580.082652388508</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>31</v>
       </c>
@@ -7776,8 +8547,11 @@
       <c r="E403">
         <v>-197.84021145607403</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>31</v>
       </c>
@@ -7793,8 +8567,11 @@
       <c r="E404">
         <v>676.21207242035962</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7810,8 +8587,11 @@
       <c r="E405">
         <v>1092.3772629137929</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>31</v>
       </c>
@@ -7827,8 +8607,11 @@
       <c r="E406">
         <v>684.32516904875592</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>31</v>
       </c>
@@ -7844,8 +8627,11 @@
       <c r="E407">
         <v>573.1086856353395</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -7861,8 +8647,11 @@
       <c r="E408">
         <v>403.47536142397439</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>31</v>
       </c>
@@ -7878,8 +8667,11 @@
       <c r="E409">
         <v>15.30851238377727</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>31</v>
       </c>
@@ -7895,8 +8687,11 @@
       <c r="E410">
         <v>-521.28331506839459</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>31</v>
       </c>
@@ -7912,8 +8707,11 @@
       <c r="E411">
         <v>-254.74470589646808</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>31</v>
       </c>
@@ -7929,8 +8727,11 @@
       <c r="E412">
         <v>-277.56687541713654</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>31</v>
       </c>
@@ -7946,8 +8747,11 @@
       <c r="E413">
         <v>110.49355002767334</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>31</v>
       </c>
@@ -7963,8 +8767,11 @@
       <c r="E414">
         <v>-50.911970232309613</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F414" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>31</v>
       </c>
@@ -7980,8 +8787,11 @@
       <c r="E415">
         <v>-14.476666847442175</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F415" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>31</v>
       </c>
@@ -7997,8 +8807,11 @@
       <c r="E416">
         <v>-62.051973338944663</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>31</v>
       </c>
@@ -8014,8 +8827,11 @@
       <c r="E417">
         <v>1050.9574984334286</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>31</v>
       </c>
@@ -8031,8 +8847,11 @@
       <c r="E418">
         <v>1333.602678140458</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>31</v>
       </c>
@@ -8048,8 +8867,11 @@
       <c r="E419">
         <v>16.851661667278677</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>31</v>
       </c>
@@ -8065,8 +8887,11 @@
       <c r="E420">
         <v>-3045.0718250236569</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>31</v>
       </c>
@@ -8082,8 +8907,11 @@
       <c r="E421">
         <v>613.03938846486199</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>31</v>
       </c>
@@ -8099,8 +8927,11 @@
       <c r="E422">
         <v>728.39170850480878</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>31</v>
       </c>
@@ -8116,8 +8947,11 @@
       <c r="E423">
         <v>1256.3597574997184</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>31</v>
       </c>
@@ -8133,8 +8967,11 @@
       <c r="E424">
         <v>541.95142327688882</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>31</v>
       </c>
@@ -8150,8 +8987,11 @@
       <c r="E425">
         <v>419.17855385874282</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>31</v>
       </c>
@@ -8167,8 +9007,11 @@
       <c r="E426">
         <v>170.651497338029</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>31</v>
       </c>
@@ -8184,8 +9027,11 @@
       <c r="E427">
         <v>-191.20553260246379</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>31</v>
       </c>
@@ -8201,8 +9047,11 @@
       <c r="E428">
         <v>-173.21557533531814</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>31</v>
       </c>
@@ -8218,8 +9067,11 @@
       <c r="E429">
         <v>-106.35580921805376</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>31</v>
       </c>
@@ -8235,8 +9087,11 @@
       <c r="E430">
         <v>-304.5979447686168</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>31</v>
       </c>
@@ -8252,8 +9107,11 @@
       <c r="E431">
         <v>-33.521677356249711</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>31</v>
       </c>
@@ -8269,8 +9127,11 @@
       <c r="E432">
         <v>-15.543730722063628</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F432" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>31</v>
       </c>
@@ -8286,8 +9147,11 @@
       <c r="E433">
         <v>-200.32085221909801</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F433" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -8303,8 +9167,11 @@
       <c r="E434">
         <v>1649.4321441859483</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -8320,8 +9187,11 @@
       <c r="E435">
         <v>1193.8693960436285</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F435" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -8337,8 +9207,11 @@
       <c r="E436">
         <v>1487.4737841082697</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -8354,8 +9227,11 @@
       <c r="E437">
         <v>1636.9099807233833</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F437" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>8</v>
       </c>
@@ -8371,8 +9247,11 @@
       <c r="E438">
         <v>309.42833234676982</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F438" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>8</v>
       </c>
@@ -8388,8 +9267,11 @@
       <c r="E439">
         <v>533.88192046439144</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F439" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -8405,8 +9287,11 @@
       <c r="E440">
         <v>1333.3144065954912</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -8422,8 +9307,11 @@
       <c r="E441">
         <v>2139.3297908798504</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F441" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -8439,8 +9327,11 @@
       <c r="E442">
         <v>1588.185391569139</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F442" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -8456,8 +9347,11 @@
       <c r="E443">
         <v>824.59446783386375</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F443" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -8473,8 +9367,11 @@
       <c r="E444">
         <v>489.57311533067514</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F444" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -8490,8 +9387,11 @@
       <c r="E445">
         <v>53.87761404156663</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F445" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -8507,8 +9407,11 @@
       <c r="E446">
         <v>504.70637516135685</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -8524,8 +9427,11 @@
       <c r="E447">
         <v>-607.39906928597975</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F447" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -8541,8 +9447,11 @@
       <c r="E448">
         <v>-90.445108832183905</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -8558,8 +9467,11 @@
       <c r="E449">
         <v>104.84799344304338</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -8575,8 +9487,11 @@
       <c r="E450">
         <v>-51.303406736595662</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F450" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -8592,8 +9507,11 @@
       <c r="E451">
         <v>-33.106755956231609</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F451" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -8609,8 +9527,11 @@
       <c r="E452">
         <v>1844.6423492436134</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F452" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -8626,8 +9547,11 @@
       <c r="E453">
         <v>1299.3798944081991</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F453" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -8643,8 +9567,11 @@
       <c r="E454">
         <v>610.97324629676405</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F454" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -8660,8 +9587,11 @@
       <c r="E455">
         <v>1309.1058976675959</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F455" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -8677,8 +9607,11 @@
       <c r="E456">
         <v>644.30401055361835</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F456" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -8694,8 +9627,11 @@
       <c r="E457">
         <v>-180.49402100223961</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F457" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -8711,8 +9647,11 @@
       <c r="E458">
         <v>1004.5543226174032</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F458" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -8728,8 +9667,11 @@
       <c r="E459">
         <v>1298.1966933681979</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F459" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -8745,8 +9687,11 @@
       <c r="E460">
         <v>988.2312813137487</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>8</v>
       </c>
@@ -8762,8 +9707,11 @@
       <c r="E461">
         <v>795.33294965164168</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F461" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>8</v>
       </c>
@@ -8779,8 +9727,11 @@
       <c r="E462">
         <v>157.46653096271257</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F462" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>8</v>
       </c>
@@ -8796,8 +9747,11 @@
       <c r="E463">
         <v>306.17066551718199</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F463" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -8813,8 +9767,11 @@
       <c r="E464">
         <v>325.25013015035984</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>8</v>
       </c>
@@ -8830,8 +9787,11 @@
       <c r="E465">
         <v>-31.98207109098712</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -8847,8 +9807,11 @@
       <c r="E466">
         <v>-44.394058803600274</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -8864,8 +9827,11 @@
       <c r="E467">
         <v>145.23457890186728</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>8</v>
       </c>
@@ -8881,8 +9847,11 @@
       <c r="E468">
         <v>15.177230002959732</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -8898,8 +9867,11 @@
       <c r="E469">
         <v>286.23706080642114</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>29</v>
       </c>
@@ -8915,8 +9887,11 @@
       <c r="E470">
         <v>85.91336393120946</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>29</v>
       </c>
@@ -8932,8 +9907,11 @@
       <c r="E471">
         <v>2176.1817617761171</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>29</v>
       </c>
@@ -8949,8 +9927,11 @@
       <c r="E472">
         <v>1177.4582766204203</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>29</v>
       </c>
@@ -8966,8 +9947,11 @@
       <c r="E473">
         <v>875.42233197880341</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>29</v>
       </c>
@@ -8983,8 +9967,11 @@
       <c r="E474">
         <v>-634.77504227296231</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>29</v>
       </c>
@@ -9000,8 +9987,11 @@
       <c r="E475">
         <v>-427.58767057812838</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>29</v>
       </c>
@@ -9017,8 +10007,11 @@
       <c r="E476">
         <v>1272.7544698430283</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>29</v>
       </c>
@@ -9034,8 +10027,11 @@
       <c r="E477">
         <v>1952.6509900627152</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>29</v>
       </c>
@@ -9051,8 +10047,11 @@
       <c r="E478">
         <v>406.65520811526949</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>29</v>
       </c>
@@ -9068,8 +10067,11 @@
       <c r="E479">
         <v>-7.7225288381669088</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>29</v>
       </c>
@@ -9085,8 +10087,11 @@
       <c r="E480">
         <v>-170.28950651224113</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>29</v>
       </c>
@@ -9102,8 +10107,11 @@
       <c r="E481">
         <v>-179.57878987545701</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>29</v>
       </c>
@@ -9119,8 +10127,11 @@
       <c r="E482">
         <v>-131.88663686479413</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>29</v>
       </c>
@@ -9136,8 +10147,11 @@
       <c r="E483">
         <v>-463.12765848872186</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>29</v>
       </c>
@@ -9153,8 +10167,11 @@
       <c r="E484">
         <v>201.21043671160169</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>29</v>
       </c>
@@ -9170,8 +10187,11 @@
       <c r="E485">
         <v>18.924662428959891</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>29</v>
       </c>
@@ -9187,8 +10207,11 @@
       <c r="E486">
         <v>-60.644538379124697</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F486" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>29</v>
       </c>
@@ -9204,8 +10227,11 @@
       <c r="E487">
         <v>-130.85564738645144</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F487" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>29</v>
       </c>
@@ -9221,8 +10247,11 @@
       <c r="E488">
         <v>488.84697212821629</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>29</v>
       </c>
@@ -9238,8 +10267,11 @@
       <c r="E489">
         <v>1918.8571961915604</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>29</v>
       </c>
@@ -9255,8 +10287,11 @@
       <c r="E490">
         <v>1072.2045436014687</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>29</v>
       </c>
@@ -9272,8 +10307,11 @@
       <c r="E491">
         <v>527.76637846682752</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>29</v>
       </c>
@@ -9289,8 +10327,11 @@
       <c r="E492">
         <v>-365.77735349674003</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>29</v>
       </c>
@@ -9306,8 +10347,11 @@
       <c r="E493">
         <v>-581.68258226662874</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>29</v>
       </c>
@@ -9323,8 +10367,11 @@
       <c r="E494">
         <v>1178.7289133127761</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>29</v>
       </c>
@@ -9340,8 +10387,11 @@
       <c r="E495">
         <v>1684.6232371377482</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>29</v>
       </c>
@@ -9357,8 +10407,11 @@
       <c r="E496">
         <v>286.70125022825596</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>29</v>
       </c>
@@ -9374,8 +10427,11 @@
       <c r="E497">
         <v>-649.93210172467843</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>29</v>
       </c>
@@ -9391,8 +10447,11 @@
       <c r="E498">
         <v>-107.8462544931208</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>29</v>
       </c>
@@ -9408,8 +10467,11 @@
       <c r="E499">
         <v>-86.154776153160128</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>29</v>
       </c>
@@ -9425,8 +10487,11 @@
       <c r="E500">
         <v>-398.87032496480424</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -9442,8 +10507,11 @@
       <c r="E501">
         <v>-13.541493086869195</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F501" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>29</v>
       </c>
@@ -9459,8 +10527,11 @@
       <c r="E502">
         <v>-43.164915040401866</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F502" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>29</v>
       </c>
@@ -9476,8 +10547,11 @@
       <c r="E503">
         <v>305.80899999045232</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F503" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>29</v>
       </c>
@@ -9493,8 +10567,11 @@
       <c r="E504">
         <v>-91.25524734771534</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>29</v>
       </c>
@@ -9510,8 +10587,11 @@
       <c r="E505">
         <v>165.73457856316327</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>30</v>
       </c>
@@ -9527,8 +10607,11 @@
       <c r="E506">
         <v>4.0920830200630007</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F506" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>30</v>
       </c>
@@ -9544,8 +10627,11 @@
       <c r="E507">
         <v>1109.1132917898758</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>30</v>
       </c>
@@ -9561,8 +10647,11 @@
       <c r="E508">
         <v>1064.5894822044393</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>30</v>
       </c>
@@ -9578,8 +10667,11 @@
       <c r="E509">
         <v>715.41834757603647</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F509" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>30</v>
       </c>
@@ -9595,8 +10687,11 @@
       <c r="E510">
         <v>-830.11943539222193</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F510" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>30</v>
       </c>
@@ -9612,8 +10707,11 @@
       <c r="E511">
         <v>-1523.2606182124946</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F511" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>30</v>
       </c>
@@ -9629,8 +10727,11 @@
       <c r="E512">
         <v>1225.0843304596983</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F512" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>30</v>
       </c>
@@ -9646,8 +10747,11 @@
       <c r="E513">
         <v>1214.5610792291227</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F513" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>30</v>
       </c>
@@ -9663,8 +10767,11 @@
       <c r="E514">
         <v>523.68865667270074</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F514" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>30</v>
       </c>
@@ -9680,8 +10787,11 @@
       <c r="E515">
         <v>537.19284477551628</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F515" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>30</v>
       </c>
@@ -9697,8 +10807,11 @@
       <c r="E516">
         <v>371.61001972046506</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F516" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>30</v>
       </c>
@@ -9714,8 +10827,11 @@
       <c r="E517">
         <v>173.74413116969117</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F517" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>30</v>
       </c>
@@ -9731,8 +10847,11 @@
       <c r="E518">
         <v>-289.78130136528125</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F518" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>30</v>
       </c>
@@ -9748,8 +10867,11 @@
       <c r="E519">
         <v>-165.69336044710963</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F519" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>30</v>
       </c>
@@ -9765,8 +10887,11 @@
       <c r="E520">
         <v>66.910692644719347</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F520" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>30</v>
       </c>
@@ -9782,8 +10907,11 @@
       <c r="E521">
         <v>-11.500513244715876</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F521" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>30</v>
       </c>
@@ -9799,8 +10927,11 @@
       <c r="E522">
         <v>12.077670168902387</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F522" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>30</v>
       </c>
@@ -9816,8 +10947,11 @@
       <c r="E523">
         <v>-78.137775395186054</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F523" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>30</v>
       </c>
@@ -9833,8 +10967,11 @@
       <c r="E524">
         <v>866.54774731180623</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F524" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>30</v>
       </c>
@@ -9850,8 +10987,11 @@
       <c r="E525">
         <v>894.80994244748945</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F525" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>30</v>
       </c>
@@ -9867,8 +11007,11 @@
       <c r="E526">
         <v>895.2723166208998</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F526" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>30</v>
       </c>
@@ -9884,8 +11027,11 @@
       <c r="E527">
         <v>307.38003848962944</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F527" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>30</v>
       </c>
@@ -9901,8 +11047,11 @@
       <c r="E528">
         <v>-732.37368174081166</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F528" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>30</v>
       </c>
@@ -9918,8 +11067,11 @@
       <c r="E529">
         <v>-1277.7924648729713</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F529" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>30</v>
       </c>
@@ -9935,8 +11087,11 @@
       <c r="E530">
         <v>1635.7249016768164</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F530" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>30</v>
       </c>
@@ -9952,8 +11107,11 @@
       <c r="E531">
         <v>1118.6333757820539</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F531" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -9969,8 +11127,11 @@
       <c r="E532">
         <v>502.53073454258629</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F532" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>30</v>
       </c>
@@ -9986,8 +11147,11 @@
       <c r="E533">
         <v>552.0824076944009</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F533" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>30</v>
       </c>
@@ -10003,8 +11167,11 @@
       <c r="E534">
         <v>434.6470119892856</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F534" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>30</v>
       </c>
@@ -10020,8 +11187,11 @@
       <c r="E535">
         <v>126.86580290701386</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F535" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>30</v>
       </c>
@@ -10037,8 +11207,11 @@
       <c r="E536">
         <v>-97.323091901669613</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F536" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>30</v>
       </c>
@@ -10054,8 +11227,11 @@
       <c r="E537">
         <v>-103.2877953588104</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F537" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>30</v>
       </c>
@@ -10071,8 +11247,11 @@
       <c r="E538">
         <v>-24.311620804523955</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F538" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>30</v>
       </c>
@@ -10088,8 +11267,11 @@
       <c r="E539">
         <v>92.44221770576678</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F539" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>30</v>
       </c>
@@ -10105,8 +11287,11 @@
       <c r="E540">
         <v>174.77001455696245</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F540" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>30</v>
       </c>
@@ -10122,8 +11307,11 @@
       <c r="E541">
         <v>-63.375161747849234</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F541" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>31</v>
       </c>
@@ -10139,8 +11327,11 @@
       <c r="E542">
         <v>189.08968025876493</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F542" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>31</v>
       </c>
@@ -10156,8 +11347,11 @@
       <c r="E543">
         <v>1168.7482763976823</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F543" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>31</v>
       </c>
@@ -10173,8 +11367,11 @@
       <c r="E544">
         <v>1013.8294511329914</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F544" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>31</v>
       </c>
@@ -10190,8 +11387,11 @@
       <c r="E545">
         <v>70.334105975871353</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F545" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>31</v>
       </c>
@@ -10207,8 +11407,11 @@
       <c r="E546">
         <v>-1435.9454466710449</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F546" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>31</v>
       </c>
@@ -10224,8 +11427,11 @@
       <c r="E547">
         <v>-2143.6654513393623</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F547" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>31</v>
       </c>
@@ -10241,8 +11447,11 @@
       <c r="E548">
         <v>846.97163979008474</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F548" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>31</v>
       </c>
@@ -10258,8 +11467,11 @@
       <c r="E549">
         <v>263.65133480371151</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F549" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>31</v>
       </c>
@@ -10275,8 +11487,11 @@
       <c r="E550">
         <v>-57.340365867950823</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F550" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>31</v>
       </c>
@@ -10292,8 +11507,11 @@
       <c r="E551">
         <v>425.8213388068325</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F551" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>31</v>
       </c>
@@ -10309,8 +11527,11 @@
       <c r="E552">
         <v>-94.540563768587162</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F552" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>31</v>
       </c>
@@ -10326,8 +11547,11 @@
       <c r="E553">
         <v>-98.419681912007945</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F553" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>31</v>
       </c>
@@ -10343,8 +11567,11 @@
       <c r="E554">
         <v>-274.8300708438328</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F554" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>31</v>
       </c>
@@ -10360,8 +11587,11 @@
       <c r="E555">
         <v>-119.75426762553798</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F555" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>31</v>
       </c>
@@ -10377,8 +11607,11 @@
       <c r="E556">
         <v>-75.333187044030637</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F556" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>31</v>
       </c>
@@ -10394,8 +11627,11 @@
       <c r="E557">
         <v>-17.217551091733185</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F557" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>31</v>
       </c>
@@ -10411,8 +11647,11 @@
       <c r="E558">
         <v>74.677576717446755</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F558" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>31</v>
       </c>
@@ -10428,8 +11667,11 @@
       <c r="E559">
         <v>-29.777447458079223</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F559" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>31</v>
       </c>
@@ -10445,8 +11687,11 @@
       <c r="E560">
         <v>159.34565784659026</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F560" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>31</v>
       </c>
@@ -10462,8 +11707,11 @@
       <c r="E561">
         <v>575.94150783482291</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F561" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>31</v>
       </c>
@@ -10479,8 +11727,11 @@
       <c r="E562">
         <v>1054.9453722660455</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F562" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>31</v>
       </c>
@@ -10496,8 +11747,11 @@
       <c r="E563">
         <v>-96.447797732516847</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F563" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>31</v>
       </c>
@@ -10513,8 +11767,11 @@
       <c r="E564">
         <v>-1592.0991867075754</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F564" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>31</v>
       </c>
@@ -10530,8 +11787,11 @@
       <c r="E565">
         <v>-1240.9591162494999</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F565" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>31</v>
       </c>
@@ -10547,8 +11807,11 @@
       <c r="E566">
         <v>1357.212320089915</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F566" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>31</v>
       </c>
@@ -10564,8 +11827,11 @@
       <c r="E567">
         <v>277.63003934220797</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F567" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>31</v>
       </c>
@@ -10581,8 +11847,11 @@
       <c r="E568">
         <v>211.73462751497391</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F568" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>31</v>
       </c>
@@ -10598,8 +11867,11 @@
       <c r="E569">
         <v>335.15004190537729</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F569" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>31</v>
       </c>
@@ -10615,8 +11887,11 @@
       <c r="E570">
         <v>-9.6447956830779731</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F570" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>31</v>
       </c>
@@ -10632,8 +11907,11 @@
       <c r="E571">
         <v>-92.061766738795995</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F571" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>31</v>
       </c>
@@ -10649,8 +11927,11 @@
       <c r="E572">
         <v>-374.8061363790639</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F572" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>31</v>
       </c>
@@ -10666,8 +11947,11 @@
       <c r="E573">
         <v>-142.04420858222511</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F573" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>31</v>
       </c>
@@ -10683,8 +11967,11 @@
       <c r="E574">
         <v>83.931207796632407</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F574" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>31</v>
       </c>
@@ -10700,8 +11987,11 @@
       <c r="E575">
         <v>-100.54579274602838</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F575" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>31</v>
       </c>
@@ -10717,8 +12007,11 @@
       <c r="E576">
         <v>182.47731220815604</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F576" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>31</v>
       </c>
@@ -10733,6 +12026,9 @@
       </c>
       <c r="E577">
         <v>177.20629524691867</v>
+      </c>
+      <c r="F577" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
